--- a/MC_compare_2022/CN_MC_compared_softBV_break.xlsx
+++ b/MC_compare_2022/CN_MC_compared_softBV_break.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="94">
   <si>
     <t>File</t>
   </si>
@@ -28,19 +28,55 @@
     <t>CN_by_MC</t>
   </si>
   <si>
+    <t>softNV_CN_2.8_0.01_0.5</t>
+  </si>
+  <si>
     <t>softNV_CN_2.8_0.01_0.7</t>
+  </si>
+  <si>
+    <t>softNV_CN_2.8_0.02_0.5</t>
   </si>
   <si>
     <t>softNV_CN_2.8_0.02_0.7</t>
   </si>
   <si>
+    <t>softNV_CN_2.8_0.03_0.5</t>
+  </si>
+  <si>
     <t>softNV_CN_2.8_0.03_0.7</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.25_0.01_0.5</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.25_0.01_0.7</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.25_0.02_0.5</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.25_0.02_0.7</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.25_0.03_0.5</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.25_0.03_0.7</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.5_0.01_0.5</t>
   </si>
   <si>
     <t>softNV_CN_4.5_0.01_0.7</t>
   </si>
   <si>
+    <t>softNV_CN_4.5_0.02_0.5</t>
+  </si>
+  <si>
     <t>softNV_CN_4.5_0.02_0.7</t>
+  </si>
+  <si>
+    <t>softNV_CN_4.5_0.03_0.5</t>
   </si>
   <si>
     <t>softNV_CN_4.5_0.03_0.7</t>
@@ -617,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:W149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,16 +690,52 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -689,16 +761,52 @@
       <c r="K2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>-2</v>
@@ -724,16 +832,52 @@
       <c r="K3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -759,16 +903,52 @@
       <c r="K4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -794,16 +974,52 @@
       <c r="K5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -829,16 +1045,52 @@
       <c r="K6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -864,16 +1116,52 @@
       <c r="K7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>-2</v>
@@ -899,16 +1187,52 @@
       <c r="K8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -934,16 +1258,52 @@
       <c r="K9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -969,16 +1329,52 @@
       <c r="K10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>-2</v>
@@ -1004,16 +1400,52 @@
       <c r="K11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>-2</v>
@@ -1039,16 +1471,52 @@
       <c r="K12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1074,16 +1542,52 @@
       <c r="K13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1109,16 +1613,52 @@
       <c r="K14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>-2</v>
@@ -1144,16 +1684,52 @@
       <c r="K15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1179,16 +1755,52 @@
       <c r="K16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>6</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>-2</v>
@@ -1214,16 +1826,52 @@
       <c r="K17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1249,16 +1897,52 @@
       <c r="K18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>-2</v>
@@ -1284,16 +1968,52 @@
       <c r="K19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1319,16 +2039,52 @@
       <c r="K20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1354,16 +2110,52 @@
       <c r="K21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1389,16 +2181,52 @@
       <c r="K22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+      <c r="R22">
+        <v>9</v>
+      </c>
+      <c r="S22">
+        <v>9</v>
+      </c>
+      <c r="T22">
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <v>9</v>
+      </c>
+      <c r="V22">
+        <v>9</v>
+      </c>
+      <c r="W22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>-2</v>
@@ -1424,16 +2252,52 @@
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>-2</v>
@@ -1451,24 +2315,60 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1494,16 +2394,52 @@
       <c r="K25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1529,16 +2465,52 @@
       <c r="K26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>-2</v>
@@ -1564,16 +2536,52 @@
       <c r="K27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>-2</v>
@@ -1599,16 +2607,52 @@
       <c r="K28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>-2</v>
@@ -1634,16 +2678,52 @@
       <c r="K29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>-2</v>
@@ -1669,16 +2749,52 @@
       <c r="K30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1704,16 +2820,52 @@
       <c r="K31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1739,16 +2891,52 @@
       <c r="K32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>8</v>
+      </c>
+      <c r="P32">
+        <v>8</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <v>8</v>
+      </c>
+      <c r="V32">
+        <v>8</v>
+      </c>
+      <c r="W32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>-2</v>
@@ -1757,33 +2945,69 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>-2</v>
@@ -1801,24 +3025,60 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1844,16 +3104,52 @@
       <c r="K35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35">
+        <v>8</v>
+      </c>
+      <c r="Q35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>8</v>
+      </c>
+      <c r="U35">
+        <v>8</v>
+      </c>
+      <c r="V35">
+        <v>8</v>
+      </c>
+      <c r="W35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1879,16 +3175,52 @@
       <c r="K36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1914,16 +3246,52 @@
       <c r="K37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>-2</v>
@@ -1949,16 +3317,52 @@
       <c r="K38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D39">
         <v>-2</v>
@@ -1984,16 +3388,52 @@
       <c r="K39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>-2</v>
@@ -2019,16 +3459,52 @@
       <c r="K40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>-2</v>
@@ -2054,16 +3530,52 @@
       <c r="K41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2089,16 +3601,52 @@
       <c r="K42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2124,16 +3672,52 @@
       <c r="K43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>-2</v>
@@ -2159,16 +3743,52 @@
       <c r="K44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>4</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>-2</v>
@@ -2194,16 +3814,52 @@
       <c r="K45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>4</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45">
+        <v>4</v>
+      </c>
+      <c r="W45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>-2</v>
@@ -2212,33 +3868,69 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>4</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="V46">
+        <v>4</v>
+      </c>
+      <c r="W46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2264,16 +3956,52 @@
       <c r="K47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="W47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>-1</v>
@@ -2282,33 +4010,69 @@
         <v>6</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>6</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>6</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>6</v>
+      </c>
+      <c r="T48">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+      <c r="V48">
+        <v>6</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -2334,16 +4098,52 @@
       <c r="K49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>6</v>
+      </c>
+      <c r="P49">
+        <v>6</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>6</v>
+      </c>
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="V49">
+        <v>6</v>
+      </c>
+      <c r="W49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2369,16 +4169,52 @@
       <c r="K50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>9</v>
+      </c>
+      <c r="R50">
+        <v>9</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>9</v>
+      </c>
+      <c r="V50">
+        <v>9</v>
+      </c>
+      <c r="W50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2404,16 +4240,52 @@
       <c r="K51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <v>6</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>6</v>
+      </c>
+      <c r="V51">
+        <v>6</v>
+      </c>
+      <c r="W51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2431,24 +4303,60 @@
         <v>10</v>
       </c>
       <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
         <v>11</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>11</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="O52">
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <v>11</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <v>11</v>
+      </c>
+      <c r="T52">
+        <v>11</v>
+      </c>
+      <c r="U52">
+        <v>11</v>
+      </c>
+      <c r="V52">
+        <v>11</v>
+      </c>
+      <c r="W52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2474,16 +4382,52 @@
       <c r="K53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>9</v>
+      </c>
+      <c r="M53">
+        <v>9</v>
+      </c>
+      <c r="N53">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>9</v>
+      </c>
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>9</v>
+      </c>
+      <c r="R53">
+        <v>9</v>
+      </c>
+      <c r="S53">
+        <v>9</v>
+      </c>
+      <c r="T53">
+        <v>9</v>
+      </c>
+      <c r="U53">
+        <v>9</v>
+      </c>
+      <c r="V53">
+        <v>9</v>
+      </c>
+      <c r="W53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>-2</v>
@@ -2509,16 +4453,52 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>-2</v>
@@ -2544,16 +4524,52 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>-2</v>
@@ -2579,16 +4595,52 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -2614,16 +4666,52 @@
       <c r="K57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>4</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>4</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>4</v>
+      </c>
+      <c r="W57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2649,16 +4737,52 @@
       <c r="K58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+      <c r="N58">
+        <v>6</v>
+      </c>
+      <c r="O58">
+        <v>6</v>
+      </c>
+      <c r="P58">
+        <v>6</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>6</v>
+      </c>
+      <c r="S58">
+        <v>6</v>
+      </c>
+      <c r="T58">
+        <v>6</v>
+      </c>
+      <c r="U58">
+        <v>6</v>
+      </c>
+      <c r="V58">
+        <v>6</v>
+      </c>
+      <c r="W58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2684,16 +4808,52 @@
       <c r="K59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>4</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>4</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59">
+        <v>4</v>
+      </c>
+      <c r="W59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>-2</v>
@@ -2719,16 +4879,52 @@
       <c r="K60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60">
+        <v>4</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2754,16 +4950,52 @@
       <c r="K61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+      <c r="O61">
+        <v>6</v>
+      </c>
+      <c r="P61">
+        <v>6</v>
+      </c>
+      <c r="Q61">
+        <v>6</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>6</v>
+      </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
+      <c r="U61">
+        <v>6</v>
+      </c>
+      <c r="V61">
+        <v>6</v>
+      </c>
+      <c r="W61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>-2</v>
@@ -2789,16 +5021,52 @@
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -2824,16 +5092,52 @@
       <c r="K63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+      <c r="U63">
+        <v>4</v>
+      </c>
+      <c r="V63">
+        <v>4</v>
+      </c>
+      <c r="W63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>-2</v>
@@ -2859,16 +5163,52 @@
       <c r="K64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <v>5</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>5</v>
+      </c>
+      <c r="U64">
+        <v>5</v>
+      </c>
+      <c r="V64">
+        <v>5</v>
+      </c>
+      <c r="W64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D65">
         <v>-2</v>
@@ -2894,16 +5234,52 @@
       <c r="K65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65">
+        <v>5</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
+        <v>5</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>5</v>
+      </c>
+      <c r="U65">
+        <v>5</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -2929,16 +5305,52 @@
       <c r="K66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>6</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>6</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>6</v>
+      </c>
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>6</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>6</v>
+      </c>
+      <c r="U66">
+        <v>6</v>
+      </c>
+      <c r="V66">
+        <v>6</v>
+      </c>
+      <c r="W66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2964,16 +5376,52 @@
       <c r="K67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+      <c r="N67">
+        <v>7</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="P67">
+        <v>7</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>7</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>7</v>
+      </c>
+      <c r="U67">
+        <v>7</v>
+      </c>
+      <c r="V67">
+        <v>7</v>
+      </c>
+      <c r="W67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2999,16 +5447,52 @@
       <c r="K68">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>12</v>
+      </c>
+      <c r="M68">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>12</v>
+      </c>
+      <c r="P68">
+        <v>12</v>
+      </c>
+      <c r="Q68">
+        <v>12</v>
+      </c>
+      <c r="R68">
+        <v>12</v>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>12</v>
+      </c>
+      <c r="U68">
+        <v>12</v>
+      </c>
+      <c r="V68">
+        <v>12</v>
+      </c>
+      <c r="W68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>-2</v>
@@ -3034,16 +5518,52 @@
       <c r="K69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69">
+        <v>6</v>
+      </c>
+      <c r="P69">
+        <v>6</v>
+      </c>
+      <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>6</v>
+      </c>
+      <c r="T69">
+        <v>6</v>
+      </c>
+      <c r="U69">
+        <v>6</v>
+      </c>
+      <c r="V69">
+        <v>6</v>
+      </c>
+      <c r="W69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>-2</v>
@@ -3069,16 +5589,52 @@
       <c r="K70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>6</v>
+      </c>
+      <c r="N70">
+        <v>6</v>
+      </c>
+      <c r="O70">
+        <v>6</v>
+      </c>
+      <c r="P70">
+        <v>6</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>6</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>6</v>
+      </c>
+      <c r="U70">
+        <v>6</v>
+      </c>
+      <c r="V70">
+        <v>6</v>
+      </c>
+      <c r="W70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -3104,16 +5660,52 @@
       <c r="K71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>6</v>
+      </c>
+      <c r="N71">
+        <v>6</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>6</v>
+      </c>
+      <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>6</v>
+      </c>
+      <c r="U71">
+        <v>6</v>
+      </c>
+      <c r="V71">
+        <v>6</v>
+      </c>
+      <c r="W71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -3139,16 +5731,52 @@
       <c r="K72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>3</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3174,16 +5802,52 @@
       <c r="K73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>9</v>
+      </c>
+      <c r="M73">
+        <v>9</v>
+      </c>
+      <c r="N73">
+        <v>9</v>
+      </c>
+      <c r="O73">
+        <v>9</v>
+      </c>
+      <c r="P73">
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <v>9</v>
+      </c>
+      <c r="R73">
+        <v>9</v>
+      </c>
+      <c r="S73">
+        <v>9</v>
+      </c>
+      <c r="T73">
+        <v>9</v>
+      </c>
+      <c r="U73">
+        <v>9</v>
+      </c>
+      <c r="V73">
+        <v>9</v>
+      </c>
+      <c r="W73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D74">
         <v>-2</v>
@@ -3192,33 +5856,69 @@
         <v>4</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <v>-2</v>
@@ -3227,33 +5927,69 @@
         <v>4</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>4</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -3279,16 +6015,52 @@
       <c r="K76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>3</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -3314,16 +6086,52 @@
       <c r="K77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>6</v>
+      </c>
+      <c r="M77">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>6</v>
+      </c>
+      <c r="O77">
+        <v>6</v>
+      </c>
+      <c r="P77">
+        <v>6</v>
+      </c>
+      <c r="Q77">
+        <v>6</v>
+      </c>
+      <c r="R77">
+        <v>6</v>
+      </c>
+      <c r="S77">
+        <v>6</v>
+      </c>
+      <c r="T77">
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <v>6</v>
+      </c>
+      <c r="V77">
+        <v>6</v>
+      </c>
+      <c r="W77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <v>-2</v>
@@ -3332,33 +6140,69 @@
         <v>3</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>3</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>3</v>
+      </c>
+      <c r="T78">
+        <v>3</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3384,16 +6228,52 @@
       <c r="K79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>6</v>
+      </c>
+      <c r="M79">
+        <v>6</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <v>6</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79">
+        <v>6</v>
+      </c>
+      <c r="R79">
+        <v>6</v>
+      </c>
+      <c r="S79">
+        <v>6</v>
+      </c>
+      <c r="T79">
+        <v>6</v>
+      </c>
+      <c r="U79">
+        <v>6</v>
+      </c>
+      <c r="V79">
+        <v>6</v>
+      </c>
+      <c r="W79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D80">
         <v>-2</v>
@@ -3419,16 +6299,52 @@
       <c r="K80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>4</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <v>4</v>
+      </c>
+      <c r="V80">
+        <v>4</v>
+      </c>
+      <c r="W80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -3454,16 +6370,52 @@
       <c r="K81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>6</v>
+      </c>
+      <c r="M81">
+        <v>6</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81">
+        <v>6</v>
+      </c>
+      <c r="P81">
+        <v>6</v>
+      </c>
+      <c r="Q81">
+        <v>6</v>
+      </c>
+      <c r="R81">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>6</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+      <c r="U81">
+        <v>6</v>
+      </c>
+      <c r="V81">
+        <v>6</v>
+      </c>
+      <c r="W81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D82">
         <v>-2</v>
@@ -3472,33 +6424,69 @@
         <v>6</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>6</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82">
+        <v>6</v>
+      </c>
+      <c r="P82">
+        <v>6</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>6</v>
+      </c>
+      <c r="S82">
+        <v>6</v>
+      </c>
+      <c r="T82">
+        <v>6</v>
+      </c>
+      <c r="U82">
+        <v>6</v>
+      </c>
+      <c r="V82">
+        <v>6</v>
+      </c>
+      <c r="W82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -3524,16 +6512,52 @@
       <c r="K83">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>12</v>
+      </c>
+      <c r="M83">
+        <v>12</v>
+      </c>
+      <c r="N83">
+        <v>12</v>
+      </c>
+      <c r="O83">
+        <v>12</v>
+      </c>
+      <c r="P83">
+        <v>12</v>
+      </c>
+      <c r="Q83">
+        <v>12</v>
+      </c>
+      <c r="R83">
+        <v>12</v>
+      </c>
+      <c r="S83">
+        <v>12</v>
+      </c>
+      <c r="T83">
+        <v>12</v>
+      </c>
+      <c r="U83">
+        <v>12</v>
+      </c>
+      <c r="V83">
+        <v>12</v>
+      </c>
+      <c r="W83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -3559,16 +6583,52 @@
       <c r="K84">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>6</v>
+      </c>
+      <c r="M84">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <v>6</v>
+      </c>
+      <c r="P84">
+        <v>6</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>6</v>
+      </c>
+      <c r="S84">
+        <v>6</v>
+      </c>
+      <c r="T84">
+        <v>6</v>
+      </c>
+      <c r="U84">
+        <v>6</v>
+      </c>
+      <c r="V84">
+        <v>6</v>
+      </c>
+      <c r="W84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -3594,16 +6654,52 @@
       <c r="K85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>4</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>4</v>
+      </c>
+      <c r="T85">
+        <v>4</v>
+      </c>
+      <c r="U85">
+        <v>4</v>
+      </c>
+      <c r="V85">
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -3629,16 +6725,52 @@
       <c r="K86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>4</v>
+      </c>
+      <c r="P86">
+        <v>4</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>4</v>
+      </c>
+      <c r="U86">
+        <v>4</v>
+      </c>
+      <c r="V86">
+        <v>4</v>
+      </c>
+      <c r="W86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D87">
         <v>-2</v>
@@ -3664,16 +6796,52 @@
       <c r="K87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D88">
         <v>-2</v>
@@ -3699,16 +6867,52 @@
       <c r="K88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -3734,16 +6938,52 @@
       <c r="K89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>4</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>4</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>4</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3769,16 +7009,52 @@
       <c r="K90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>4</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="S90">
+        <v>4</v>
+      </c>
+      <c r="T90">
+        <v>4</v>
+      </c>
+      <c r="U90">
+        <v>4</v>
+      </c>
+      <c r="V90">
+        <v>4</v>
+      </c>
+      <c r="W90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D91">
         <v>-2</v>
@@ -3804,16 +7080,52 @@
       <c r="K91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
+        <v>2</v>
+      </c>
+      <c r="W91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -3831,24 +7143,60 @@
         <v>10</v>
       </c>
       <c r="I92">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K92">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>11</v>
+      </c>
+      <c r="M92">
+        <v>11</v>
+      </c>
+      <c r="N92">
+        <v>11</v>
+      </c>
+      <c r="O92">
+        <v>11</v>
+      </c>
+      <c r="P92">
+        <v>10</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
+      </c>
+      <c r="R92">
+        <v>11</v>
+      </c>
+      <c r="S92">
+        <v>11</v>
+      </c>
+      <c r="T92">
+        <v>11</v>
+      </c>
+      <c r="U92">
+        <v>11</v>
+      </c>
+      <c r="V92">
+        <v>10</v>
+      </c>
+      <c r="W92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D93">
         <v>-1</v>
@@ -3866,24 +7214,60 @@
         <v>3</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
+        <v>4</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <v>4</v>
+      </c>
+      <c r="T93">
+        <v>4</v>
+      </c>
+      <c r="U93">
+        <v>4</v>
+      </c>
+      <c r="V93">
+        <v>4</v>
+      </c>
+      <c r="W93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>-1</v>
@@ -3909,16 +7293,52 @@
       <c r="K94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>4</v>
+      </c>
+      <c r="U94">
+        <v>4</v>
+      </c>
+      <c r="V94">
+        <v>4</v>
+      </c>
+      <c r="W94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D95">
         <v>-1</v>
@@ -3944,16 +7364,52 @@
       <c r="K95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>4</v>
+      </c>
+      <c r="Q95">
+        <v>4</v>
+      </c>
+      <c r="R95">
+        <v>4</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>4</v>
+      </c>
+      <c r="U95">
+        <v>4</v>
+      </c>
+      <c r="V95">
+        <v>4</v>
+      </c>
+      <c r="W95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>-1</v>
@@ -3971,24 +7427,60 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <v>5</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>5</v>
+      </c>
+      <c r="T96">
+        <v>5</v>
+      </c>
+      <c r="U96">
+        <v>5</v>
+      </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
+      <c r="W96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4014,16 +7506,52 @@
       <c r="K97">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>6</v>
+      </c>
+      <c r="N97">
+        <v>6</v>
+      </c>
+      <c r="O97">
+        <v>6</v>
+      </c>
+      <c r="P97">
+        <v>6</v>
+      </c>
+      <c r="Q97">
+        <v>6</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97">
+        <v>6</v>
+      </c>
+      <c r="T97">
+        <v>6</v>
+      </c>
+      <c r="U97">
+        <v>6</v>
+      </c>
+      <c r="V97">
+        <v>6</v>
+      </c>
+      <c r="W97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4049,16 +7577,52 @@
       <c r="K98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>8</v>
+      </c>
+      <c r="M98">
+        <v>8</v>
+      </c>
+      <c r="N98">
+        <v>8</v>
+      </c>
+      <c r="O98">
+        <v>8</v>
+      </c>
+      <c r="P98">
+        <v>8</v>
+      </c>
+      <c r="Q98">
+        <v>8</v>
+      </c>
+      <c r="R98">
+        <v>8</v>
+      </c>
+      <c r="S98">
+        <v>8</v>
+      </c>
+      <c r="T98">
+        <v>8</v>
+      </c>
+      <c r="U98">
+        <v>8</v>
+      </c>
+      <c r="V98">
+        <v>8</v>
+      </c>
+      <c r="W98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D99">
         <v>-2</v>
@@ -4067,33 +7631,69 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>3</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -4119,16 +7719,52 @@
       <c r="K100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>4</v>
+      </c>
+      <c r="R100">
+        <v>4</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <v>4</v>
+      </c>
+      <c r="U100">
+        <v>4</v>
+      </c>
+      <c r="V100">
+        <v>4</v>
+      </c>
+      <c r="W100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -4146,24 +7782,60 @@
         <v>9</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K101">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>10</v>
+      </c>
+      <c r="M101">
+        <v>10</v>
+      </c>
+      <c r="N101">
+        <v>10</v>
+      </c>
+      <c r="O101">
+        <v>10</v>
+      </c>
+      <c r="P101">
+        <v>9</v>
+      </c>
+      <c r="Q101">
+        <v>9</v>
+      </c>
+      <c r="R101">
+        <v>10</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>10</v>
+      </c>
+      <c r="U101">
+        <v>10</v>
+      </c>
+      <c r="V101">
+        <v>9</v>
+      </c>
+      <c r="W101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D102">
         <v>-2</v>
@@ -4172,33 +7844,69 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>3</v>
       </c>
       <c r="J102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>3</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D103">
         <v>-2</v>
@@ -4207,33 +7915,69 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>4</v>
+      </c>
+      <c r="W103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D104">
         <v>-2</v>
@@ -4242,33 +7986,69 @@
         <v>3</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>3</v>
       </c>
       <c r="J104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>3</v>
+      </c>
+      <c r="Q104">
+        <v>3</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D105">
         <v>-2</v>
@@ -4277,33 +8057,69 @@
         <v>3</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <v>3</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>3</v>
+      </c>
+      <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>3</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -4329,16 +8145,52 @@
       <c r="K106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>4</v>
+      </c>
+      <c r="U106">
+        <v>4</v>
+      </c>
+      <c r="V106">
+        <v>4</v>
+      </c>
+      <c r="W106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -4364,16 +8216,52 @@
       <c r="K107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>6</v>
+      </c>
+      <c r="M107">
+        <v>6</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107">
+        <v>6</v>
+      </c>
+      <c r="P107">
+        <v>6</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>6</v>
+      </c>
+      <c r="S107">
+        <v>6</v>
+      </c>
+      <c r="T107">
+        <v>6</v>
+      </c>
+      <c r="U107">
+        <v>6</v>
+      </c>
+      <c r="V107">
+        <v>6</v>
+      </c>
+      <c r="W107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D108">
         <v>-2</v>
@@ -4382,33 +8270,69 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="P108">
+        <v>2</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D109">
         <v>-2</v>
@@ -4417,33 +8341,69 @@
         <v>3</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
       <c r="J109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+      <c r="P109">
+        <v>3</v>
+      </c>
+      <c r="Q109">
+        <v>3</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -4469,16 +8429,52 @@
       <c r="K110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>4</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>4</v>
+      </c>
+      <c r="S110">
+        <v>4</v>
+      </c>
+      <c r="T110">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>4</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -4504,16 +8500,52 @@
       <c r="K111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>6</v>
+      </c>
+      <c r="N111">
+        <v>6</v>
+      </c>
+      <c r="O111">
+        <v>6</v>
+      </c>
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>6</v>
+      </c>
+      <c r="S111">
+        <v>6</v>
+      </c>
+      <c r="T111">
+        <v>6</v>
+      </c>
+      <c r="U111">
+        <v>6</v>
+      </c>
+      <c r="V111">
+        <v>6</v>
+      </c>
+      <c r="W111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D112">
         <v>-2</v>
@@ -4539,16 +8571,52 @@
       <c r="K112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>3</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>3</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D113">
         <v>-2</v>
@@ -4557,33 +8625,69 @@
         <v>3</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>3</v>
       </c>
       <c r="J113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>3</v>
+      </c>
+      <c r="P113">
+        <v>3</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113">
+        <v>3</v>
+      </c>
+      <c r="T113">
+        <v>3</v>
+      </c>
+      <c r="U113">
+        <v>3</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -4609,16 +8713,52 @@
       <c r="K114">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>6</v>
+      </c>
+      <c r="M114">
+        <v>6</v>
+      </c>
+      <c r="N114">
+        <v>6</v>
+      </c>
+      <c r="O114">
+        <v>6</v>
+      </c>
+      <c r="P114">
+        <v>6</v>
+      </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>6</v>
+      </c>
+      <c r="S114">
+        <v>6</v>
+      </c>
+      <c r="T114">
+        <v>6</v>
+      </c>
+      <c r="U114">
+        <v>6</v>
+      </c>
+      <c r="V114">
+        <v>6</v>
+      </c>
+      <c r="W114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -4644,16 +8784,52 @@
       <c r="K115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
+        <v>4</v>
+      </c>
+      <c r="Q115">
+        <v>4</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>4</v>
+      </c>
+      <c r="U115">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D116">
         <v>-2</v>
@@ -4679,16 +8855,52 @@
       <c r="K116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
+      </c>
+      <c r="P116">
+        <v>2</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
+        <v>2</v>
+      </c>
+      <c r="W116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D117">
         <v>-2</v>
@@ -4714,16 +8926,52 @@
       <c r="K117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>2</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>2</v>
+      </c>
+      <c r="W117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -4749,16 +8997,52 @@
       <c r="K118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>4</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>4</v>
+      </c>
+      <c r="T118">
+        <v>4</v>
+      </c>
+      <c r="U118">
+        <v>4</v>
+      </c>
+      <c r="V118">
+        <v>4</v>
+      </c>
+      <c r="W118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -4784,16 +9068,52 @@
       <c r="K119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>6</v>
+      </c>
+      <c r="N119">
+        <v>6</v>
+      </c>
+      <c r="O119">
+        <v>6</v>
+      </c>
+      <c r="P119">
+        <v>6</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>6</v>
+      </c>
+      <c r="S119">
+        <v>6</v>
+      </c>
+      <c r="T119">
+        <v>6</v>
+      </c>
+      <c r="U119">
+        <v>6</v>
+      </c>
+      <c r="V119">
+        <v>6</v>
+      </c>
+      <c r="W119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D120">
         <v>-2</v>
@@ -4802,33 +9122,69 @@
         <v>3</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>3</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120">
+        <v>1</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="W120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D121">
         <v>-2</v>
@@ -4854,16 +9210,52 @@
       <c r="K121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+      <c r="P121">
+        <v>3</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>3</v>
+      </c>
+      <c r="W121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -4889,16 +9281,52 @@
       <c r="K122">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>6</v>
+      </c>
+      <c r="M122">
+        <v>6</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122">
+        <v>6</v>
+      </c>
+      <c r="P122">
+        <v>6</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>6</v>
+      </c>
+      <c r="S122">
+        <v>6</v>
+      </c>
+      <c r="T122">
+        <v>6</v>
+      </c>
+      <c r="U122">
+        <v>6</v>
+      </c>
+      <c r="V122">
+        <v>6</v>
+      </c>
+      <c r="W122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -4924,16 +9352,52 @@
       <c r="K123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>6</v>
+      </c>
+      <c r="M123">
+        <v>6</v>
+      </c>
+      <c r="N123">
+        <v>6</v>
+      </c>
+      <c r="O123">
+        <v>6</v>
+      </c>
+      <c r="P123">
+        <v>6</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>6</v>
+      </c>
+      <c r="U123">
+        <v>6</v>
+      </c>
+      <c r="V123">
+        <v>6</v>
+      </c>
+      <c r="W123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -4959,16 +9423,52 @@
       <c r="K124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>6</v>
+      </c>
+      <c r="M124">
+        <v>6</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124">
+        <v>6</v>
+      </c>
+      <c r="P124">
+        <v>6</v>
+      </c>
+      <c r="Q124">
+        <v>6</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>6</v>
+      </c>
+      <c r="T124">
+        <v>6</v>
+      </c>
+      <c r="U124">
+        <v>6</v>
+      </c>
+      <c r="V124">
+        <v>6</v>
+      </c>
+      <c r="W124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -4994,16 +9494,52 @@
       <c r="K125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <v>4</v>
+      </c>
+      <c r="P125">
+        <v>4</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
+        <v>4</v>
+      </c>
+      <c r="V125">
+        <v>4</v>
+      </c>
+      <c r="W125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C126" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D126">
         <v>6</v>
@@ -5029,16 +9565,52 @@
       <c r="K126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>4</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <v>4</v>
+      </c>
+      <c r="T126">
+        <v>4</v>
+      </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
+      <c r="V126">
+        <v>4</v>
+      </c>
+      <c r="W126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D127">
         <v>-2</v>
@@ -5047,33 +9619,69 @@
         <v>4</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G127">
         <v>4</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>4</v>
       </c>
       <c r="J127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>4</v>
+      </c>
+      <c r="T127">
+        <v>4</v>
+      </c>
+      <c r="U127">
+        <v>4</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D128">
         <v>-2</v>
@@ -5091,24 +9699,60 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="P128">
+        <v>2</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>2</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D129">
         <v>-2</v>
@@ -5126,24 +9770,60 @@
         <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D130">
         <v>-2</v>
@@ -5152,33 +9832,69 @@
         <v>3</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>3</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>3</v>
       </c>
       <c r="J130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K130">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130">
+        <v>3</v>
+      </c>
+      <c r="P130">
+        <v>3</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D131">
         <v>-2</v>
@@ -5196,24 +9912,60 @@
         <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D132">
         <v>5</v>
@@ -5239,16 +9991,52 @@
       <c r="K132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>6</v>
+      </c>
+      <c r="M132">
+        <v>6</v>
+      </c>
+      <c r="N132">
+        <v>6</v>
+      </c>
+      <c r="O132">
+        <v>6</v>
+      </c>
+      <c r="P132">
+        <v>6</v>
+      </c>
+      <c r="Q132">
+        <v>6</v>
+      </c>
+      <c r="R132">
+        <v>6</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>6</v>
+      </c>
+      <c r="U132">
+        <v>6</v>
+      </c>
+      <c r="V132">
+        <v>6</v>
+      </c>
+      <c r="W132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D133">
         <v>-2</v>
@@ -5274,16 +10062,52 @@
       <c r="K133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133">
+        <v>3</v>
+      </c>
+      <c r="P133">
+        <v>3</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>3</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>3</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D134">
         <v>-2</v>
@@ -5301,24 +10125,60 @@
         <v>2</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134">
+        <v>3</v>
+      </c>
+      <c r="P134">
+        <v>3</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>3</v>
+      </c>
+      <c r="T134">
+        <v>3</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D135">
         <v>-2</v>
@@ -5344,16 +10204,52 @@
       <c r="K135">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
+        <v>3</v>
+      </c>
+      <c r="P135">
+        <v>3</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>3</v>
+      </c>
+      <c r="T135">
+        <v>3</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D136">
         <v>-2</v>
@@ -5379,16 +10275,52 @@
       <c r="K136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136">
+        <v>2</v>
+      </c>
+      <c r="P136">
+        <v>2</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C137" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -5406,24 +10338,60 @@
         <v>4</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137">
+        <v>5</v>
+      </c>
+      <c r="P137">
+        <v>5</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>5</v>
+      </c>
+      <c r="T137">
+        <v>5</v>
+      </c>
+      <c r="U137">
+        <v>5</v>
+      </c>
+      <c r="V137">
+        <v>5</v>
+      </c>
+      <c r="W137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C138" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -5449,16 +10417,52 @@
       <c r="K138">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>6</v>
+      </c>
+      <c r="M138">
+        <v>6</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138">
+        <v>6</v>
+      </c>
+      <c r="P138">
+        <v>6</v>
+      </c>
+      <c r="Q138">
+        <v>6</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>6</v>
+      </c>
+      <c r="T138">
+        <v>6</v>
+      </c>
+      <c r="U138">
+        <v>6</v>
+      </c>
+      <c r="V138">
+        <v>6</v>
+      </c>
+      <c r="W138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D139">
         <v>-1</v>
@@ -5484,16 +10488,52 @@
       <c r="K139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>2</v>
+      </c>
+      <c r="P139">
+        <v>2</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D140">
         <v>-1</v>
@@ -5502,33 +10542,69 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>5</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>5</v>
       </c>
       <c r="J140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>5</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>5</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140">
+        <v>5</v>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>5</v>
+      </c>
+      <c r="V140">
+        <v>1</v>
+      </c>
+      <c r="W140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C141" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -5546,24 +10622,60 @@
         <v>8</v>
       </c>
       <c r="I141">
+        <v>8</v>
+      </c>
+      <c r="J141">
+        <v>8</v>
+      </c>
+      <c r="K141">
+        <v>8</v>
+      </c>
+      <c r="L141">
+        <v>8</v>
+      </c>
+      <c r="M141">
+        <v>8</v>
+      </c>
+      <c r="N141">
+        <v>8</v>
+      </c>
+      <c r="O141">
+        <v>8</v>
+      </c>
+      <c r="P141">
+        <v>8</v>
+      </c>
+      <c r="Q141">
+        <v>8</v>
+      </c>
+      <c r="R141">
         <v>16</v>
       </c>
-      <c r="J141">
+      <c r="S141">
         <v>16</v>
       </c>
-      <c r="K141">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="T141">
+        <v>16</v>
+      </c>
+      <c r="U141">
+        <v>16</v>
+      </c>
+      <c r="V141">
+        <v>8</v>
+      </c>
+      <c r="W141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D142">
         <v>-2</v>
@@ -5589,16 +10701,52 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>1</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="V142">
+        <v>1</v>
+      </c>
+      <c r="W142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D143">
         <v>-2</v>
@@ -5607,33 +10755,69 @@
         <v>3</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <v>3</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>3</v>
       </c>
       <c r="J143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>3</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
+        <v>3</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D144">
         <v>-2</v>
@@ -5651,24 +10835,60 @@
         <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>2</v>
+      </c>
+      <c r="P144">
+        <v>2</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>2</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -5694,16 +10914,52 @@
       <c r="K145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>4</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>4</v>
+      </c>
+      <c r="U145">
+        <v>4</v>
+      </c>
+      <c r="V145">
+        <v>4</v>
+      </c>
+      <c r="W145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C146" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -5729,16 +10985,52 @@
       <c r="K146">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <v>6</v>
+      </c>
+      <c r="O146">
+        <v>6</v>
+      </c>
+      <c r="P146">
+        <v>6</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>6</v>
+      </c>
+      <c r="S146">
+        <v>6</v>
+      </c>
+      <c r="T146">
+        <v>6</v>
+      </c>
+      <c r="U146">
+        <v>6</v>
+      </c>
+      <c r="V146">
+        <v>6</v>
+      </c>
+      <c r="W146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C147" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D147">
         <v>-2</v>
@@ -5764,16 +11056,52 @@
       <c r="K147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147">
+        <v>3</v>
+      </c>
+      <c r="P147">
+        <v>3</v>
+      </c>
+      <c r="Q147">
+        <v>3</v>
+      </c>
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -5799,16 +11127,52 @@
       <c r="K148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148">
+        <v>4</v>
+      </c>
+      <c r="P148">
+        <v>4</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>4</v>
+      </c>
+      <c r="U148">
+        <v>4</v>
+      </c>
+      <c r="V148">
+        <v>4</v>
+      </c>
+      <c r="W148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -5832,6 +11196,42 @@
         <v>8</v>
       </c>
       <c r="K149">
+        <v>8</v>
+      </c>
+      <c r="L149">
+        <v>8</v>
+      </c>
+      <c r="M149">
+        <v>8</v>
+      </c>
+      <c r="N149">
+        <v>8</v>
+      </c>
+      <c r="O149">
+        <v>8</v>
+      </c>
+      <c r="P149">
+        <v>8</v>
+      </c>
+      <c r="Q149">
+        <v>8</v>
+      </c>
+      <c r="R149">
+        <v>8</v>
+      </c>
+      <c r="S149">
+        <v>8</v>
+      </c>
+      <c r="T149">
+        <v>8</v>
+      </c>
+      <c r="U149">
+        <v>8</v>
+      </c>
+      <c r="V149">
+        <v>8</v>
+      </c>
+      <c r="W149">
         <v>8</v>
       </c>
     </row>
